--- a/학사관리 샘플데이터/샘플-성적데이터.xlsx
+++ b/학사관리 샘플데이터/샘플-성적데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7378,8 +7378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(50, 100)</f>
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(50, 100)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C11" s="2">
         <f ca="1">RANDBETWEEN(50, 100)</f>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
